--- a/MyStoreV1/TestData/MyStoreTestData.xlsx
+++ b/MyStoreV1/TestData/MyStoreTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13920" windowHeight="3105"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15225" windowHeight="3600"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -388,7 +393,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -399,35 +404,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
